--- a/Text/Reimers_Merle_text.xlsx
+++ b/Text/Reimers_Merle_text.xlsx
@@ -56,7 +56,7 @@
     <t>Objekte</t>
   </si>
   <si>
-    <t>Gläserne_Monolithe_1_und_2 (gif)</t>
+    <t>Gläserne_Monolithe_1_und_2 (mp4)</t>
   </si>
   <si>
     <t>the thing in the center is made of colorful stained glass depicting abstract shapes and patterns. The light passes through the glass. In the background there is the desert</t>
@@ -68,7 +68,7 @@
     <t>a bone made of colorful stained glass depicting abstract shapes and patterns.</t>
   </si>
   <si>
-    <t>Gläserne_Knochen_2_und_3 (gif)</t>
+    <t>Gläserne_Knochen_2_und_3 (mp4)</t>
   </si>
   <si>
     <r>
@@ -87,7 +87,7 @@
     <t>made of colorful stained glass depicting abstract shapes and patterns. The light passes through the glass.</t>
   </si>
   <si>
-    <t>Gläserne_Raumschiffe_2_und_3 (gif)</t>
+    <t>Gläserne_Raumschiffe_2_und_3 (mp4)</t>
   </si>
   <si>
     <t xml:space="preserve">broken glass effect, stunning, mythical, beautiful, a spaceship that looks like a organic, modern church, beautiful, colorful glass </t>
@@ -96,10 +96,10 @@
     <t>Gläserner_Stuhl_1</t>
   </si>
   <si>
-    <t>A digital rendering of a sculptural colorful glass chair set in a futuristic space. intricate glasswork, delicate and intricate design. Broken Glass effect, futuristic, stunning, something that even doesn't exist, energy, molecular, textures, iridescent and luminescent scales, breathtaking beauty</t>
-  </si>
-  <si>
-    <t>Gläserne_Stühle_2_und_3 (gif)</t>
+    <t>A digital rendering of a sculptural colorful glass chair set in a futuristic space. intricate glasswork, delicate and intricate design. Broken Glass effect, futuristic, stunning, something that even doesn't exist, energy, molecular, textures, iridescent and luminescent scales, breathtaking beauty, pure perfection, unforgettable, impressive, breathtaking beauty, Volumetric light, auras, rays, vivid colors reflects</t>
+  </si>
+  <si>
+    <t>Gläserne_Stühle_2_und_3 (mp4)</t>
   </si>
   <si>
     <t>The chair is made of a transparent material that allows light to pass through. decorated with colorful stained glass depicting abstract shapes and patterns. The stained glass is reminiscent of the windows of a church.</t>
@@ -111,7 +111,7 @@
     <t>Gläserner_Aufenthaltsraum_1</t>
   </si>
   <si>
-    <t>A large conference room in a futuristic building. The walls, ceiling and floor are made of a transparent material that allows light to pass through. The walls are decorated with colorful stained glass depicting abstract shapes and patterns. The stained glass is reminiscent of the windows of a church</t>
+    <t>A large conference room in a futuristic building. The walls, ceiling and floor are made of a transparent material that allows light to pass through. The walls are decorated with colorful stained glass depicting abstract shapes and patterns. The stained glass is reminiscent of the windows of a church and bathes the room in a mystical light.</t>
   </si>
   <si>
     <t>Gläserner_Aufenthaltsraum_2</t>
@@ -129,16 +129,16 @@
     <t>Gläsernes_Büro</t>
   </si>
   <si>
-    <t>a small room with a computer monitor in a futuristic spaceship. The walls, ceiling and floor are made of a transparent material that allows light to pass through. The walls are decorated with colorful stained glass depicting abstract shapes and patterns. The stained glass is reminiscent of the…</t>
-  </si>
-  <si>
-    <t>Gläserne_Konferenzräume_1_und_2 (gif)</t>
-  </si>
-  <si>
-    <t>A large conference room in a futuristic spaceship. The walls, ceiling and floor are made of a transparent material that allows light to pass through. The walls are decorated with colorful stained glass depicting abstract shapes and patterns. The stained glass is reminiscent of the windows of a church</t>
-  </si>
-  <si>
-    <t>Gläserne_Raumschiffe_4_und_5 (gif)</t>
+    <t>a small room with a computer monitor in a futuristic spaceship. The walls, ceiling and floor are made of a transparent material that allows light to pass through. The walls are decorated with colorful stained glass depicting abstract shapes and patterns. The stained glass is reminiscent of the windows of a church and bathes the room in a mystical light. Soft colors.</t>
+  </si>
+  <si>
+    <t>Gläserne_Konferenzräume_1_und_2 (mp4)</t>
+  </si>
+  <si>
+    <t>A large conference room in a futuristic spaceship. The walls, ceiling and floor are made of a transparent material that allows light to pass through. The walls are decorated with colorful stained glass depicting abstract shapes and patterns. The stained glass is reminiscent of the windows of a church and bathes the room in a mystical light.</t>
+  </si>
+  <si>
+    <t>Gläserne_Raumschiffe_4_und_5 (mp4)</t>
   </si>
   <si>
     <t>made of colorful stained glass depicting abstract shapes and patterns. The light passes through the glass. It flies in the universe</t>
@@ -153,7 +153,7 @@
     <t>Gläserner_Entspannungsraum</t>
   </si>
   <si>
-    <t>a small room in a futuristic spaceship. The walls, ceiling and floor are made of a transparent material that allows light to pass through. The walls are decorated with colorful stained glass depicting abstract shapes and patterns. The stained glass is reminiscent of the windows of a church…</t>
+    <t>a small room in a futuristic spaceship. The walls, ceiling and floor are made of a transparent material that allows light to pass through. The walls are decorated with colorful stained glass depicting abstract shapes and patterns. The stained glass is reminiscent of the windows of a church and bathes the room in a mystical light.</t>
   </si>
   <si>
     <t xml:space="preserve">Gläserner_Astronautenanzug_1
@@ -175,7 +175,7 @@
     <t xml:space="preserve">broken glass effect, stunning, mythical, beautiful, a spaceship cockpit that looks like a organic, modern, colorful glass art, it's evening </t>
   </si>
   <si>
-    <t xml:space="preserve">Gläserne_Astronautenanzüge_2_und_3 (gif)
+    <t xml:space="preserve">Gläserne_Astronautenanzüge_2_und_3 (mp4)
 </t>
   </si>
   <si>
@@ -194,7 +194,7 @@
     <t>Gläsernes_Schlafzimmer</t>
   </si>
   <si>
-    <t>a small room with a bed in a futuristic spaceship. The walls, ceiling and floor are made of a transparent material that allows light to pass through. The walls are decorated with colorful stained glass depicting abstract shapes and patterns. The stained glass is reminiscent of the windows of a church</t>
+    <t>a small room with a bed in a futuristic spaceship. The walls, ceiling and floor are made of a transparent material that allows light to pass through. The walls are decorated with colorful stained glass depicting abstract shapes and patterns. The stained glass is reminiscent of the windows of a church and bathes the room in a mystical light. Soft colors.</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1692,7 +1692,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" t="s" s="15">
+      <c r="E10" t="s" s="12">
         <v>28</v>
       </c>
       <c r="F10" s="13"/>
@@ -1724,7 +1724,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" t="s" s="15">
+      <c r="E12" t="s" s="12">
         <v>28</v>
       </c>
       <c r="F12" s="13"/>
@@ -1772,7 +1772,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" t="s" s="15">
+      <c r="E15" t="s" s="12">
         <v>36</v>
       </c>
       <c r="F15" s="13"/>
@@ -1932,7 +1932,7 @@
         <v>54</v>
       </c>
       <c r="D25" s="13"/>
-      <c r="E25" t="s" s="15">
+      <c r="E25" t="s" s="12">
         <v>55</v>
       </c>
       <c r="F25" s="13"/>

--- a/Text/Reimers_Merle_text.xlsx
+++ b/Text/Reimers_Merle_text.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>Timecode</t>
   </si>
@@ -49,7 +49,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>In der Adaption wird der konventionelle und traditionelle Stil von Kirchenräumen (Glas-Fenster) mit dem eher neuartigen Design der Raumfahrt (weiße, sterile Flächen) kombiniert. Die Adaption greift den Aspekt von Gottheiten und der Verehrung dieser auf, was auch im Film eine zentrale Thematik ist.</t>
+      <t>In der Adaption wird der konventionelle und traditionelle Stil von Kirchenräumen (Bunte Glas-Fenster) mit dem neuartigen Design der Raumfahrt (weiße, sterile Flächen) kombiniert. Die Adaption greift den Aspekt von Gottheiten und der Verehrung dieser auf, was auch im Film eine zentrale Thematik ist.</t>
     </r>
   </si>
   <si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Gläserne_Monolithe_1_und_2 (mp4)</t>
+  </si>
+  <si>
+    <t>Merle Reimers</t>
   </si>
   <si>
     <t>the thing in the center is made of colorful stained glass depicting abstract shapes and patterns. The light passes through the glass. In the background there is the desert</t>
@@ -1579,9 +1582,11 @@
       <c r="C3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" t="s" s="11">
+        <v>13</v>
+      </c>
       <c r="E3" t="s" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="13"/>
     </row>
@@ -1593,11 +1598,11 @@
         <v>11</v>
       </c>
       <c r="C4" t="s" s="12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" t="s" s="12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="13"/>
     </row>
@@ -1609,11 +1614,11 @@
         <v>11</v>
       </c>
       <c r="C5" t="s" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" t="s" s="15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="13"/>
     </row>
@@ -1625,11 +1630,11 @@
         <v>11</v>
       </c>
       <c r="C6" t="s" s="12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" t="s" s="12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="13"/>
     </row>
@@ -1641,11 +1646,11 @@
         <v>11</v>
       </c>
       <c r="C7" t="s" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" t="s" s="18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="13"/>
     </row>
@@ -1657,11 +1662,11 @@
         <v>11</v>
       </c>
       <c r="C8" t="s" s="16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" t="s" s="19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="13"/>
     </row>
@@ -1673,11 +1678,11 @@
         <v>11</v>
       </c>
       <c r="C9" t="s" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" t="s" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="13"/>
     </row>
@@ -1686,14 +1691,14 @@
         <v>27</v>
       </c>
       <c r="B10" t="s" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" t="s" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="13"/>
     </row>
@@ -1702,14 +1707,14 @@
         <v>27</v>
       </c>
       <c r="B11" t="s" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" t="s" s="15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="13"/>
     </row>
@@ -1718,14 +1723,14 @@
         <v>27</v>
       </c>
       <c r="B12" t="s" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" t="s" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="13"/>
     </row>
@@ -1734,14 +1739,14 @@
         <v>27</v>
       </c>
       <c r="B13" t="s" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" t="s" s="15">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="13"/>
     </row>
@@ -1750,14 +1755,14 @@
         <v>29</v>
       </c>
       <c r="B14" t="s" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" t="s" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" s="13"/>
     </row>
@@ -1766,14 +1771,14 @@
         <v>42</v>
       </c>
       <c r="B15" t="s" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" t="s" s="12">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="13"/>
     </row>
@@ -1785,11 +1790,11 @@
         <v>11</v>
       </c>
       <c r="C16" t="s" s="12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" t="s" s="12">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" s="13"/>
     </row>
@@ -1801,11 +1806,11 @@
         <v>11</v>
       </c>
       <c r="C17" t="s" s="12">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" t="s" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" s="13"/>
     </row>
@@ -1814,14 +1819,14 @@
         <v>66</v>
       </c>
       <c r="B18" t="s" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" t="s" s="12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" s="13"/>
     </row>
@@ -1833,11 +1838,11 @@
         <v>11</v>
       </c>
       <c r="C19" t="s" s="20">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" t="s" s="12">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" s="13"/>
     </row>
@@ -1846,14 +1851,14 @@
         <v>72</v>
       </c>
       <c r="B20" t="s" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s" s="12">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" t="s" s="12">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" s="13"/>
     </row>
@@ -1865,11 +1870,11 @@
         <v>11</v>
       </c>
       <c r="C21" t="s" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" t="s" s="15">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="13"/>
     </row>
@@ -1881,11 +1886,11 @@
         <v>11</v>
       </c>
       <c r="C22" t="s" s="20">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" t="s" s="12">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F22" s="13"/>
     </row>
@@ -1897,11 +1902,11 @@
         <v>11</v>
       </c>
       <c r="C23" t="s" s="12">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" t="s" s="12">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23" s="13"/>
     </row>
@@ -1910,14 +1915,14 @@
         <v>111</v>
       </c>
       <c r="B24" t="s" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s" s="12">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" t="s" s="12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="13"/>
     </row>
@@ -1926,14 +1931,14 @@
         <v>137</v>
       </c>
       <c r="B25" t="s" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s" s="12">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" t="s" s="12">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" s="13"/>
     </row>

--- a/Text/Reimers_Merle_text.xlsx
+++ b/Text/Reimers_Merle_text.xlsx
@@ -43,14 +43,7 @@
     <t>Pro Bild / for each image</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>In der Adaption wird der konventionelle und traditionelle Stil von Kirchenräumen (Bunte Glas-Fenster) mit dem neuartigen Design der Raumfahrt (weiße, sterile Flächen) kombiniert. Die Adaption greift den Aspekt von Gottheiten und der Verehrung dieser auf, was auch im Film eine zentrale Thematik ist.</t>
-    </r>
+    <t>In der Adaption wird der traditionelle Stil von Kirchenräumen (insbesondere bunte Glasfenster) mit dem futuristischen Design des Science-Fiction-Klassikers kombiniert. Die Adaption greift den Aspekt von Gottheiten und der Verehrung dieser auf, was auch im Film eine zentrale Thematik ist.</t>
   </si>
   <si>
     <t>Objekte</t>
@@ -398,8 +391,8 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
